--- a/data-raw/md_to_ddh_api_fields.xlsx
+++ b/data-raw/md_to_ddh_api_fields.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>ddh_fields</t>
   </si>
@@ -84,9 +84,6 @@
     <t>termsofUse</t>
   </si>
   <si>
-    <t>group_terms_of_use</t>
-  </si>
-  <si>
     <t>contactEmail</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>field_wbddh_reference_id</t>
   </si>
   <si>
-    <t>codeBook/stdyDscr/citation/titlStmt/IDNo</t>
-  </si>
-  <si>
     <t>searchTags</t>
   </si>
   <si>
@@ -382,6 +376,15 @@
   </si>
   <si>
     <t>ID used to query the API</t>
+  </si>
+  <si>
+    <t>field_wbddh_terms_of_use</t>
+  </si>
+  <si>
+    <t>access_type</t>
+  </si>
+  <si>
+    <t>surveyid</t>
   </si>
 </sst>
 </file>
@@ -919,17 +922,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color theme="9"/>
@@ -1403,8 +1396,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,10 +1440,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,13 +1505,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,387 +1525,387 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,112 +1930,121 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
       <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2052,72 +2054,72 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F10 E2:E3 E8:E12 E16 E5:F6 E19 E21:E23 E14 F30 E29:E35">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data-raw/md_to_ddh_api_fields.xlsx
+++ b/data-raw/md_to_ddh_api_fields.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">md_to_ddh_api_fields!$A$1:$F$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>ddh_fields</t>
   </si>
@@ -385,6 +385,93 @@
   </si>
   <si>
     <t>surveyid</t>
+  </si>
+  <si>
+    <t>transTitle</t>
+  </si>
+  <si>
+    <t>accessAuthName</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>estSampleError</t>
+  </si>
+  <si>
+    <t>otherDataAppraisail</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>verDescript</t>
+  </si>
+  <si>
+    <t>verNotes</t>
+  </si>
+  <si>
+    <t>verProdDate</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/dataAccs/useStmt/contact</t>
+  </si>
+  <si>
+    <t>field_wbddh_access_authority</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/prodStmt/copyright</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/method/anlyInfo/EstSmpErr</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/method/anlyInfo/dataAppr</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/method/dataColl/sources/dataSrc</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/titlStmt/subTitl</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/verStmt/notes</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/verStmt/version</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/verStmt/version/@date</t>
+  </si>
+  <si>
+    <t>field_wbddh_copyright</t>
+  </si>
+  <si>
+    <t>field_wbddh_estimate_sampling</t>
+  </si>
+  <si>
+    <t>field_wbddh_other_forms_of_data</t>
+  </si>
+  <si>
+    <t>field_wbddh_ds_source</t>
+  </si>
+  <si>
+    <t>field_wbddh_subtitle</t>
+  </si>
+  <si>
+    <t>field_wbddh_version_description</t>
+  </si>
+  <si>
+    <t>field_wbddh_version_notes</t>
+  </si>
+  <si>
+    <t>field_wbddh_version_date</t>
+  </si>
+  <si>
+    <t>codeBook/stdyDscr/citation/titlStmt/parTitl</t>
   </si>
 </sst>
 </file>
@@ -1393,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,19 +1518,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,84 +1566,81 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>90</v>
@@ -1570,47 +1651,41 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
@@ -1621,13 +1696,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -1638,30 +1713,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>90</v>
@@ -1672,13 +1744,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>90</v>
@@ -1689,13 +1761,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>90</v>
@@ -1706,33 +1778,33 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>
@@ -1740,13 +1812,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
@@ -1757,16 +1829,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>91</v>
@@ -1774,13 +1846,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>90</v>
@@ -1791,13 +1863,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -1808,67 +1880,49 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>91</v>
@@ -1876,13 +1930,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
         <v>90</v>
@@ -1893,13 +1947,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
@@ -1910,33 +1964,33 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1944,69 +1998,66 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>90</v>
@@ -2015,42 +2066,212 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F38">
-    <sortState ref="A2:F38">
-      <sortCondition ref="E1:E38"/>
+    <sortState ref="A2:F50">
+      <sortCondition ref="A1:A38"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F10 E2:E3 E8:E12 E16 E5:F6 E19 E21:E23 E14 F30 E29:E35">

--- a/data-raw/md_to_ddh_api_fields.xlsx
+++ b/data-raw/md_to_ddh_api_fields.xlsx
@@ -1484,7 +1484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
